--- a/XXX  产品接入 云监控模版.xlsx
+++ b/XXX  产品接入 云监控模版.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
   <si>
     <t xml:space="preserve"> 每个产品 长期维护一份 该文档，新增的或者修改的全部在 存量基础上修改</t>
   </si>
@@ -304,52 +304,136 @@
     </r>
   </si>
   <si>
-    <t>指标类型</t>
-  </si>
-  <si>
-    <t>指标单位规范</t>
-  </si>
-  <si>
-    <t>带宽指标</t>
+    <t>指标类</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <r>
+      <t>**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>率（使用率、利用率、命中率等）</t>
+    </r>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <r>
+      <t>**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数（请求数、连接数、扫描数等）</t>
+    </r>
+  </si>
+  <si>
+    <t>个/秒、个/分钟、次/秒、次/分钟、次、个</t>
+  </si>
+  <si>
+    <r>
+      <t>**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS</t>
+    </r>
+  </si>
+  <si>
+    <t>次、个</t>
+  </si>
+  <si>
+    <r>
+      <t>增删改查数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>量（吞吐量、IO读写量等）</t>
+    </r>
+  </si>
+  <si>
+    <t>MB/s、KB/s、B/s</t>
+  </si>
+  <si>
+    <r>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（等待，服务，延迟等）</t>
+    </r>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <r>
+      <t>空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（存储空间、内存）</t>
+    </r>
+  </si>
+  <si>
+    <t>GB、MB、KB、B</t>
+  </si>
+  <si>
+    <t>带宽</t>
   </si>
   <si>
     <t>Mbps</t>
   </si>
   <si>
-    <t>流量指标</t>
-  </si>
-  <si>
-    <t>Mb</t>
-  </si>
-  <si>
-    <t>内存指标</t>
+    <t>流量</t>
   </si>
   <si>
     <t>MB</t>
   </si>
   <si>
-    <t>包量指标</t>
-  </si>
-  <si>
-    <t>个</t>
-  </si>
-  <si>
-    <t>包量速率</t>
-  </si>
-  <si>
-    <t>个/s</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>待补充</t>
-  </si>
-  <si>
-    <t>测试</t>
+    <t>包量</t>
+  </si>
+  <si>
+    <t>个/秒</t>
+  </si>
+  <si>
+    <t>速率</t>
+  </si>
+  <si>
+    <t>MB/s</t>
   </si>
   <si>
     <r>
@@ -1072,6 +1156,9 @@
     <t>是</t>
   </si>
   <si>
+    <t>个/s</t>
+  </si>
+  <si>
     <t>0-1000000000</t>
   </si>
   <si>
@@ -1220,12 +1307,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1334,8 +1421,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="16"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.349986266670736"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1343,14 +1455,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1364,7 +1468,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1379,30 +1491,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1417,45 +1529,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1486,9 +1576,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1569,7 +1675,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1581,61 +1837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1647,43 +1849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,68 +1859,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2029,16 +2135,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="0" tint="-0.5"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="0" tint="-0.5"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="0" tint="-0.5"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="0" tint="-0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2061,37 +2176,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2125,157 +2226,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2483,10 +2604,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2877,16 +3001,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="28.25" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="16" customWidth="1"/>
+    <col min="1" max="1" width="37" style="16" customWidth="1"/>
+    <col min="2" max="2" width="42.375" style="16" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="16" customWidth="1"/>
     <col min="4" max="4" width="18" style="16" customWidth="1"/>
     <col min="5" max="6" width="25.25" style="16" customWidth="1"/>
@@ -3108,68 +3232,92 @@
       <c r="E25" s="67"/>
       <c r="F25" s="68"/>
     </row>
-    <row r="28" ht="21" spans="1:2">
-      <c r="A28" s="49" t="s">
+    <row r="28" ht="22.5" spans="1:2">
+      <c r="A28" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="69" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="69" t="s">
+    <row r="29" ht="17.25" spans="1:2">
+      <c r="A29" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="71" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="69" t="s">
+    <row r="30" ht="17.25" spans="1:2">
+      <c r="A30" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="71" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="69" t="s">
+    <row r="31" ht="17.25" spans="1:2">
+      <c r="A31" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="71" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="69" t="s">
+    <row r="32" ht="17.25" spans="1:2">
+      <c r="A32" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="71" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="69" t="s">
+    <row r="33" ht="17.25" spans="1:2">
+      <c r="A33" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="71" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="69" t="s">
+    <row r="34" ht="17.25" spans="1:2">
+      <c r="A34" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="71" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:2">
-      <c r="A35" s="70" t="s">
+    <row r="35" ht="17.25" spans="1:2">
+      <c r="A35" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="71" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="36" ht="17.25" spans="1:2">
+      <c r="A36" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="71" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" ht="17.25" spans="1:2">
+      <c r="A37" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" ht="17.25" spans="1:2">
+      <c r="A38" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="71" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3224,7 +3372,7 @@
     <row r="1" customHeight="1" spans="6:13">
       <c r="F1" s="17"/>
       <c r="G1" s="18" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
@@ -3235,7 +3383,7 @@
     </row>
     <row r="2" ht="21.95" customHeight="1" spans="1:13">
       <c r="A2" s="19" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3252,10 +3400,10 @@
     </row>
     <row r="3" ht="21.95" customHeight="1" spans="1:13">
       <c r="A3" s="21" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="23"/>
@@ -3270,10 +3418,10 @@
     </row>
     <row r="4" ht="21.95" customHeight="1" spans="1:13">
       <c r="A4" s="24" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="26"/>
@@ -3300,7 +3448,7 @@
     </row>
     <row r="6" ht="21.95" customHeight="1" spans="1:13">
       <c r="A6" s="28" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -3317,16 +3465,16 @@
     </row>
     <row r="7" ht="139.5" customHeight="1" spans="1:13">
       <c r="A7" s="21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="20"/>
@@ -3340,16 +3488,16 @@
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:13">
       <c r="A8" s="24" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="20"/>
@@ -3363,16 +3511,16 @@
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:12">
       <c r="A9" s="24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E9" s="32"/>
       <c r="G9" s="18"/>
@@ -3405,7 +3553,7 @@
     </row>
     <row r="12" ht="21" spans="1:20">
       <c r="A12" s="34" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -3424,7 +3572,7 @@
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:20">
       <c r="A13" s="35" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -3446,7 +3594,7 @@
     </row>
     <row r="15" ht="21.75" spans="1:7">
       <c r="A15" s="39" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -3457,39 +3605,39 @@
     </row>
     <row r="16" ht="44.25" customHeight="1" spans="1:19">
       <c r="A16" s="40" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K16" s="44"/>
       <c r="L16" s="45"/>
       <c r="M16" s="46" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N16" s="46"/>
       <c r="O16" s="46"/>
@@ -3509,270 +3657,270 @@
       <c r="H17" s="41"/>
       <c r="I17" s="41"/>
       <c r="J17" s="21" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:19">
       <c r="A18" s="24" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M18" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="N18" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="O18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="24" t="s">
-        <v>81</v>
-      </c>
       <c r="Q18" s="24" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="R18" s="24" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="S18" s="24" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:19">
       <c r="A19" s="24" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M19" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="N19" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="O19" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" s="24" t="s">
-        <v>81</v>
-      </c>
       <c r="Q19" s="24" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="R19" s="24" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="S19" s="24" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:19">
       <c r="A20" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="O20" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="P20" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="Q20" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="R20" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="24" t="s">
+      <c r="S20" s="24" t="s">
         <v>94</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="N20" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="O20" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="P20" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q20" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="R20" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="S20" s="24" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" s="15" customFormat="1" ht="18" customHeight="1" spans="1:19">
       <c r="A21" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="M21" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="N21" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="O21" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="P21" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="Q21" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="R21" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="42" t="s">
+      <c r="S21" s="42" t="s">
         <v>94</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K21" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="L21" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="M21" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="N21" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="O21" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="P21" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q21" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="R21" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="S21" s="42" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:19">
@@ -3957,19 +4105,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" ht="49.5" spans="1:5">
@@ -3977,13 +4125,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E2" s="8"/>
     </row>
@@ -3992,13 +4140,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -4007,13 +4155,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -4022,16 +4170,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" ht="36" spans="1:5">
@@ -4039,14 +4187,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" ht="36" spans="1:5">
@@ -4054,16 +4202,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" ht="36" spans="1:5">
@@ -4071,14 +4219,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" ht="33" spans="1:5">
@@ -4086,10 +4234,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8"/>
@@ -4099,14 +4247,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="12" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" ht="36" spans="1:5">
@@ -4114,14 +4262,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="12" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" ht="36" spans="1:5">
@@ -4129,14 +4277,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="12" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4144,13 +4292,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -4159,13 +4307,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E14" s="8"/>
     </row>
@@ -4174,10 +4322,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="8"/>
@@ -4187,10 +4335,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
@@ -4200,10 +4348,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="8"/>
@@ -4213,10 +4361,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -4226,14 +4374,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="12" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" ht="36" spans="1:5">
@@ -4241,14 +4389,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="12" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" ht="36" spans="1:5">
@@ -4256,14 +4404,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="12" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" ht="36" spans="1:5">
@@ -4271,14 +4419,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="12" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4301,7 +4449,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
